--- a/biology/Zoologie/Chien_de_détection/Chien_de_détection.xlsx
+++ b/biology/Zoologie/Chien_de_détection/Chien_de_détection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_de_d%C3%A9tection</t>
+          <t>Chien_de_détection</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien de détection, parfois appelé chien renifleur, est un chien spécialement dressé pour signaler la présence de différentes matières (explosifs, armes, produits stupéfiants ou inflammables) ou de personnes (prisonnières de décombres ou d'avalanches, restes humains, personnes disparues, hormones illicites…).
 Les races les plus communes dans ce genre de travail sont des chiens de chasse, comme le labrador, ou des chiens de berger, comme le malinois ou le berger allemand.
 En France, ces chiens sont utilisés comme chiens policiers par les services de police, la gendarmerie, la douane ou la sécurité privée.
 Les beagles sont aussi utilisés par la douane canadienne pour détecter de la nourriture, de la drogue, etc.
-Le chien pourrait même servir à détecter des maladies telles que certains cancers[1] ou certains virus comme la covid-19[2].
+Le chien pourrait même servir à détecter des maladies telles que certains cancers ou certains virus comme la covid-19.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_de_d%C3%A9tection</t>
+          <t>Chien_de_détection</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Le dressage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dressage des chiens de détection repose toujours sur deux principes, d'une part faire plaisir à son maître et, d'autre part, jouer. De ce fait, le chien ne « travaille » jamais, il joue.
 Du fait, la relation entre le maître et le chien est très importante, chacun doit pouvoir compter sur l'autre.
